--- a/西开作业情况.xlsx
+++ b/西开作业情况.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="297">
   <si>
     <t>博客</t>
   </si>
@@ -365,557 +365,626 @@
     <t>https://github.com/JAVA-HH/homework</t>
   </si>
   <si>
+    <t>https://github.com/lichenhao123/HomeWork</t>
+  </si>
+  <si>
+    <t>https://github.com/belife666/HomeWork</t>
+  </si>
+  <si>
+    <t>高茜茜</t>
+  </si>
+  <si>
+    <t>https://github.com/gxxcathie/homework</t>
+  </si>
+  <si>
+    <t>网络和线程方面的博客非常认真，有自己总结</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/cao_cc</t>
+  </si>
+  <si>
+    <t>https://github.com/cccisasb/cccisabigsb</t>
+  </si>
+  <si>
+    <t>https://github.com/dongyongzhe/homework</t>
+  </si>
+  <si>
+    <t>算法方面应当再注意它们之间的差异和细节</t>
+  </si>
+  <si>
+    <t>https://github.com/BanStayUpLate/SGJ-Homework</t>
+  </si>
+  <si>
+    <t>https://github.com/TTYYHH111/homework</t>
+  </si>
+  <si>
+    <t>实现了爬虫，命名和代码规范需要加强，掐指一算是你的口头禅吗，贴了大量思维导图是特色</t>
+  </si>
+  <si>
+    <t>郭兴</t>
+  </si>
+  <si>
+    <t>https://github.com/Memory33/Memory</t>
+  </si>
+  <si>
+    <t>丁广盈</t>
+  </si>
+  <si>
+    <t>https://github.com/820109673/study</t>
+  </si>
+  <si>
+    <t>梁秋</t>
+  </si>
+  <si>
+    <t>https://github.com/735573516/homework</t>
+  </si>
+  <si>
+    <t>https://github.com/leixiang456/good</t>
+  </si>
+  <si>
+    <t>汤晶晶</t>
+  </si>
+  <si>
+    <t>https://github.com/luncky123/homework</t>
+  </si>
+  <si>
+    <t>博客更新稳定，希望持之以恒，排版应当加强，聊天室实现似乎比较好，装饰模式</t>
+  </si>
+  <si>
+    <t>https://github.com/bryant-yangy/homework</t>
+  </si>
+  <si>
+    <t>郑倩倩</t>
+  </si>
+  <si>
+    <t>https://github.com/zqqqqz/homework</t>
+  </si>
+  <si>
+    <t>聊天室的代码完成了一部分</t>
+  </si>
+  <si>
+    <t>蔡熙尧</t>
+  </si>
+  <si>
+    <t>https://github.com/SHIELD0/Homework</t>
+  </si>
+  <si>
+    <t>李星燃</t>
+  </si>
+  <si>
+    <t>https://github.com/lixingran666/homework</t>
+  </si>
+  <si>
+    <t>自学了简单工厂</t>
+  </si>
+  <si>
+    <t>罗云继</t>
+  </si>
+  <si>
+    <t>https://github.com/CannotBB/homework</t>
+  </si>
+  <si>
+    <t>爬虫</t>
+  </si>
+  <si>
+    <t>张欣乐</t>
+  </si>
+  <si>
+    <t>https://github.com/lllighost/homework</t>
+  </si>
+  <si>
+    <t>聊天室完成部分代码</t>
+  </si>
+  <si>
+    <t>吕娜</t>
+  </si>
+  <si>
+    <t>https://github.com/Ahandsomeboo/homework</t>
+  </si>
+  <si>
+    <t>李蓉</t>
+  </si>
+  <si>
+    <t>https://github.com/2b3c511/homework</t>
+  </si>
+  <si>
+    <t>博客更新稳定，很认真</t>
+  </si>
+  <si>
+    <t>https://github.com/ChioaR/h0mework</t>
+  </si>
+  <si>
+    <t>作业完成了群聊</t>
+  </si>
+  <si>
+    <t>王春梅</t>
+  </si>
+  <si>
+    <t>https://github.com/wcm950305/homework</t>
+  </si>
+  <si>
+    <t>惠振川</t>
+  </si>
+  <si>
+    <t>https://github.com/Wechuan/homework.git</t>
+  </si>
+  <si>
+    <t>大文件复制，可以看看内存映射文件，另外图片不要提交到git上，太大了</t>
+  </si>
+  <si>
+    <t>史兆祥</t>
+  </si>
+  <si>
+    <t>https://github.com/CarpeDime233/Homework</t>
+  </si>
+  <si>
+    <t>韩西康</t>
+  </si>
+  <si>
+    <t>https://github.com/fenglinjiuqu/homework</t>
+  </si>
+  <si>
+    <t>希望有第二篇、第三篇</t>
+  </si>
+  <si>
+    <t>阴明昊</t>
+  </si>
+  <si>
+    <t>https://github.com/yinmh/homework</t>
+  </si>
+  <si>
+    <t>思维导图总结的很清楚，作业完成也很及时</t>
+  </si>
+  <si>
+    <t>实现了代理模式爬虫，但博客很久没更新了</t>
+  </si>
+  <si>
+    <t>马少康</t>
+  </si>
+  <si>
+    <t>https://github.com/msk666666/homework</t>
+  </si>
+  <si>
+    <t>git提交时out请忽略，另外下载地址只有一个，没必要用两个线程，你的两个线程应该是重复下载了</t>
+  </si>
+  <si>
+    <t>https://github.com/zqwangf/homework</t>
+  </si>
+  <si>
+    <t>https://github.com/yuzhouwudigaolengnanshen/homework</t>
+  </si>
+  <si>
+    <t>实现了群聊功能、爬虫</t>
+  </si>
+  <si>
+    <t>薛彪</t>
+  </si>
+  <si>
+    <t>https://github.com/zxueb/homework</t>
+  </si>
+  <si>
+    <t>每篇文件都用思维导图总结，抽象工厂模式，名字稍有不恰当，水火弄颠倒了</t>
+  </si>
+  <si>
+    <t>王康宇</t>
+  </si>
+  <si>
+    <t>https://github.com/Wistar-Kyoto/HomeWork</t>
+  </si>
+  <si>
+    <t>每篇文件都用思维导图总结，加上了自己的心得体会</t>
+  </si>
+  <si>
+    <t>王怀乐</t>
+  </si>
+  <si>
+    <t>https://github.com/SeThrows/HomeWork</t>
+  </si>
+  <si>
+    <t>实现了聊天室，做了面向对象的抽象</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>https://github.com/ThePick1011/Homework</t>
+  </si>
+  <si>
+    <t>刘帅</t>
+  </si>
+  <si>
+    <t>https://github.com/shuaideyapi/homework</t>
+  </si>
+  <si>
+    <t>刘雨帆</t>
+  </si>
+  <si>
+    <t>陈柏宇</t>
+  </si>
+  <si>
+    <t>吉家卉</t>
+  </si>
+  <si>
+    <t>https://github.com/rainbowcheese/homework</t>
+  </si>
+  <si>
+    <t>博客更新稳定，学习了工厂类</t>
+  </si>
+  <si>
+    <t>张弛</t>
+  </si>
+  <si>
+    <t>https://github.com/xiaochi100/Homework</t>
+  </si>
+  <si>
+    <t>聊天室完成群聊，学习了装饰模式</t>
+  </si>
+  <si>
+    <t>宋辉</t>
+  </si>
+  <si>
+    <t>https://github.com/SongGJ792/homework</t>
+  </si>
+  <si>
+    <t>学习了桥接模式，理解的不错</t>
+  </si>
+  <si>
+    <t>张文龙</t>
+  </si>
+  <si>
+    <t>https://github.com/zwl100/homework</t>
+  </si>
+  <si>
+    <t>不会自动排序，只是碰巧了，只完成了部分课堂例题</t>
+  </si>
+  <si>
+    <t>王路</t>
+  </si>
+  <si>
+    <t>https://github.com/WangLu6/Homework</t>
+  </si>
+  <si>
+    <t>学习了几种工厂模式，看来都理解了</t>
+  </si>
+  <si>
+    <t>马超逸</t>
+  </si>
+  <si>
+    <t>https://github.com/Dragongstone/homework</t>
+  </si>
+  <si>
+    <t>周靖朝</t>
+  </si>
+  <si>
+    <t>裴艳霞</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/sinat_40432588</t>
+  </si>
+  <si>
+    <t>https://github.com/qiaoqiaomumu/homework</t>
+  </si>
+  <si>
+    <t>使用思维导图进行了总结，但排版要加强</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lyf_0922/</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Eastwater2/Homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/F3ver1/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Zhoushenxin/ZJC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次作业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次作业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/735573516/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/CannotBB/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵睿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔天翼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张鹏展</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/2b3c511/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Ahandsomeboo/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://me.csdn.net/zpj890512</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_41804322</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_39536394</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己在自学高并发</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_43141904</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_38637725</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/xing_ran_ran</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_41586079</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Lil_Ghost</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/a__handsome</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lr1916417519</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/chioaR</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_41421480</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/We_chuan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Crape_diem233</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_43651654</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_37291761</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qty4505861</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/mashaokang1314</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_42068654</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zpz2411232428</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.51cto.com/13987153</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Wistar_Kyoto</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_43494152</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_36575247</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_37757008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43651005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/grey_mouse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/zc12345670zc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/SongGJ123</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43156969</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/wanglulu12138</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/s03151394</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/vivado123</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/PreyHard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43279596</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43271182</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Simple_Tj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/DallinC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/gxcdmn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/B_Belief</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_42881999</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖宝不地道啊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>李晨浩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/lichenhao123/HomeWork</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/belife666/HomeWork</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>赵永峰</t>
-  </si>
-  <si>
-    <t>https://github.com/belife666/HomeWork</t>
-  </si>
-  <si>
-    <t>高茜茜</t>
-  </si>
-  <si>
-    <t>https://github.com/gxxcathie/homework</t>
-  </si>
-  <si>
-    <t>网络和线程方面的博客非常认真，有自己总结</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dongyongzhe/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>董永哲</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Memory33/Memory</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/820109673/study</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/leixiang456/good</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷祥</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/bryant-yangy/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨毅东</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/zqqqqz/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/SHIELD0/Homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/fenglinjiuqu/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Wistar-Kyoto/HomeWork</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/Dragongstone/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/Memory_sun</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/cccisasb/cccisabigsb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>曹晨晨</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/cao_cc</t>
-  </si>
-  <si>
-    <t>https://github.com/cccisasb/cccisabigsb</t>
-  </si>
-  <si>
-    <t>董永哲</t>
-  </si>
-  <si>
-    <t>https://github.com/dongyongzhe/homework</t>
-  </si>
-  <si>
-    <t>算法方面应当再注意它们之间的差异和细节</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>折高建</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>https://github.com/BanStayUpLate/SGJ-Homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/TTYYHH111/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>田宇虎</t>
-  </si>
-  <si>
-    <t>https://github.com/TTYYHH111/homework</t>
-  </si>
-  <si>
-    <t>实现了爬虫，命名和代码规范需要加强，掐指一算是你的口头禅吗，贴了大量思维导图是特色</t>
-  </si>
-  <si>
-    <t>郭兴</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/Memory_sun</t>
-  </si>
-  <si>
-    <t>https://github.com/Memory33/Memory</t>
-  </si>
-  <si>
-    <t>丁广盈</t>
-  </si>
-  <si>
-    <t>https://github.com/820109673/study</t>
-  </si>
-  <si>
-    <t>梁秋</t>
-  </si>
-  <si>
-    <t>https://github.com/735573516/homework</t>
-  </si>
-  <si>
-    <t>雷祥</t>
-  </si>
-  <si>
-    <t>https://github.com/leixiang456/good</t>
-  </si>
-  <si>
-    <t>汤晶晶</t>
-  </si>
-  <si>
-    <t>https://github.com/luncky123/homework</t>
-  </si>
-  <si>
-    <t>博客更新稳定，希望持之以恒，排版应当加强，聊天室实现似乎比较好，装饰模式</t>
-  </si>
-  <si>
-    <t>杨毅东</t>
-  </si>
-  <si>
-    <t>https://github.com/bryant-yangy/homework</t>
-  </si>
-  <si>
-    <t>郑倩倩</t>
-  </si>
-  <si>
-    <t>https://github.com/zqqqqz/homework</t>
-  </si>
-  <si>
-    <t>聊天室的代码完成了一部分</t>
-  </si>
-  <si>
-    <t>蔡熙尧</t>
-  </si>
-  <si>
-    <t>https://github.com/SHIELD0/Homework</t>
-  </si>
-  <si>
-    <t>李星燃</t>
-  </si>
-  <si>
-    <t>https://github.com/lixingran666/homework</t>
-  </si>
-  <si>
-    <t>自学了简单工厂</t>
-  </si>
-  <si>
-    <t>罗云继</t>
-  </si>
-  <si>
-    <t>https://github.com/CannotBB/homework</t>
-  </si>
-  <si>
-    <t>爬虫</t>
-  </si>
-  <si>
-    <t>张欣乐</t>
-  </si>
-  <si>
-    <t>https://github.com/lllighost/homework</t>
-  </si>
-  <si>
-    <t>聊天室完成部分代码</t>
-  </si>
-  <si>
-    <t>吕娜</t>
-  </si>
-  <si>
-    <t>https://github.com/Ahandsomeboo/homework</t>
-  </si>
-  <si>
-    <t>李蓉</t>
-  </si>
-  <si>
-    <t>https://github.com/2b3c511/homework</t>
-  </si>
-  <si>
-    <t>博客更新稳定，很认真</t>
-  </si>
-  <si>
-    <t>https://github.com/ChioaR/h0mework</t>
-  </si>
-  <si>
-    <t>作业完成了群聊</t>
-  </si>
-  <si>
-    <t>王春梅</t>
-  </si>
-  <si>
-    <t>https://github.com/wcm950305/homework</t>
-  </si>
-  <si>
-    <t>惠振川</t>
-  </si>
-  <si>
-    <t>https://github.com/Wechuan/homework.git</t>
-  </si>
-  <si>
-    <t>大文件复制，可以看看内存映射文件，另外图片不要提交到git上，太大了</t>
-  </si>
-  <si>
-    <t>史兆祥</t>
-  </si>
-  <si>
-    <t>https://github.com/CarpeDime233/Homework</t>
-  </si>
-  <si>
-    <t>韩西康</t>
-  </si>
-  <si>
-    <t>https://github.com/fenglinjiuqu/homework</t>
-  </si>
-  <si>
-    <t>希望有第二篇、第三篇</t>
-  </si>
-  <si>
-    <t>阴明昊</t>
-  </si>
-  <si>
-    <t>https://github.com/yinmh/homework</t>
-  </si>
-  <si>
-    <t>思维导图总结的很清楚，作业完成也很及时</t>
-  </si>
-  <si>
-    <t>实现了代理模式爬虫，但博客很久没更新了</t>
-  </si>
-  <si>
-    <t>马少康</t>
-  </si>
-  <si>
-    <t>https://github.com/msk666666/homework</t>
-  </si>
-  <si>
-    <t>git提交时out请忽略，另外下载地址只有一个，没必要用两个线程，你的两个线程应该是重复下载了</t>
-  </si>
-  <si>
-    <t>https://github.com/zqwangf/homework</t>
-  </si>
-  <si>
-    <t>https://github.com/yuzhouwudigaolengnanshen/homework</t>
-  </si>
-  <si>
-    <t>实现了群聊功能、爬虫</t>
-  </si>
-  <si>
-    <t>薛彪</t>
-  </si>
-  <si>
-    <t>https://github.com/zxueb/homework</t>
-  </si>
-  <si>
-    <t>每篇文件都用思维导图总结，抽象工厂模式，名字稍有不恰当，水火弄颠倒了</t>
-  </si>
-  <si>
-    <t>王康宇</t>
-  </si>
-  <si>
-    <t>https://github.com/Wistar-Kyoto/HomeWork</t>
-  </si>
-  <si>
-    <t>每篇文件都用思维导图总结，加上了自己的心得体会</t>
-  </si>
-  <si>
-    <t>王怀乐</t>
-  </si>
-  <si>
-    <t>https://github.com/SeThrows/HomeWork</t>
-  </si>
-  <si>
-    <t>实现了聊天室，做了面向对象的抽象</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
-    <t>https://github.com/ThePick1011/Homework</t>
-  </si>
-  <si>
-    <t>刘帅</t>
-  </si>
-  <si>
-    <t>https://github.com/shuaideyapi/homework</t>
-  </si>
-  <si>
-    <t>刘雨帆</t>
-  </si>
-  <si>
-    <t>陈柏宇</t>
-  </si>
-  <si>
-    <t>吉家卉</t>
-  </si>
-  <si>
-    <t>https://github.com/rainbowcheese/homework</t>
-  </si>
-  <si>
-    <t>博客更新稳定，学习了工厂类</t>
-  </si>
-  <si>
-    <t>张弛</t>
-  </si>
-  <si>
-    <t>https://github.com/xiaochi100/Homework</t>
-  </si>
-  <si>
-    <t>聊天室完成群聊，学习了装饰模式</t>
-  </si>
-  <si>
-    <t>宋辉</t>
-  </si>
-  <si>
-    <t>https://github.com/SongGJ792/homework</t>
-  </si>
-  <si>
-    <t>学习了桥接模式，理解的不错</t>
-  </si>
-  <si>
-    <t>张文龙</t>
-  </si>
-  <si>
-    <t>https://github.com/zwl100/homework</t>
-  </si>
-  <si>
-    <t>不会自动排序，只是碰巧了，只完成了部分课堂例题</t>
-  </si>
-  <si>
-    <t>王路</t>
-  </si>
-  <si>
-    <t>https://github.com/WangLu6/Homework</t>
-  </si>
-  <si>
-    <t>学习了几种工厂模式，看来都理解了</t>
-  </si>
-  <si>
-    <t>马超逸</t>
-  </si>
-  <si>
-    <t>https://github.com/Dragongstone/homework</t>
-  </si>
-  <si>
-    <t>周靖朝</t>
-  </si>
-  <si>
-    <t>裴艳霞</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/sinat_40432588</t>
-  </si>
-  <si>
-    <t>https://github.com/qiaoqiaomumu/homework</t>
-  </si>
-  <si>
-    <t>使用思维导图进行了总结，但排版要加强</t>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/lyf_0922/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Eastwater2/Homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/F3ver1/homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Zhoushenxin/ZJC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次作业</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二次作业</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/735573516/homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/CannotBB/homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵睿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔天翼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鹏展</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/2b3c511/homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/Ahandsomeboo/homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://me.csdn.net/zpj890512</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_41804322</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_39536394</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己在自学高并发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_43141904</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_38637725</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/xing_ran_ran</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_41586079</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/Lil_Ghost</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/a__handsome</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/lr1916417519</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/chioaR</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_41421480</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/We_chuan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/Crape_diem233</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_43651654</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_37291761</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qty4505861</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/mashaokang1314</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_42068654</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/zpz2411232428</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://blog.51cto.com/13987153</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/Wistar_Kyoto</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_43494152</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_36575247</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_37757008</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/weixin_43651005</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/grey_mouse</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/zc12345670zc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/SongGJ123</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/weixin_43156969</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/wanglulu12138</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/s03151394</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/vivado123</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/PreyHard</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/weixin_43279596</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/weixin_43271182</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/Simple_Tj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/DallinC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/gxcdmn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/B_Belief</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/qq_42881999</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖宝不地道啊</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1196,11 +1265,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2306,14 +2375,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="57.44140625" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="81.77734375" customWidth="1"/>
   </cols>
@@ -2323,10 +2393,10 @@
         <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>112</v>
@@ -2347,7 +2417,7 @@
         <v>115</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E2" s="7">
         <v>43423</v>
@@ -2355,17 +2425,17 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D3" s="33" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E3" s="10">
         <v>43440</v>
@@ -2373,17 +2443,17 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>119</v>
+      <c r="A4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E4" s="6">
         <v>43433</v>
@@ -2392,36 +2462,36 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E5" s="6">
         <v>43440</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="7">
         <v>43410</v>
@@ -2429,37 +2499,37 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>127</v>
+      <c r="A7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>277</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E7" s="6">
         <v>43426</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>130</v>
+      <c r="A8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>294</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E8" s="7">
         <v>43410</v>
@@ -2467,37 +2537,37 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>132</v>
+      <c r="A9" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E9" s="6">
         <v>43432</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>136</v>
+        <v>128</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>279</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>290</v>
       </c>
       <c r="E10" s="7">
         <v>43419</v>
@@ -2506,16 +2576,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>280</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="E11" s="6">
         <v>43432</v>
@@ -2524,16 +2594,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E12" s="6">
         <v>43438</v>
@@ -2541,17 +2611,17 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>142</v>
+      <c r="A13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E13" s="7">
         <v>43391</v>
@@ -2560,76 +2630,76 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E14" s="6">
         <v>43438</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>147</v>
+      <c r="A15" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>283</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E15" s="6">
         <v>43439</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>285</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E16" s="10">
         <v>43434</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>286</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E17" s="6">
         <v>43435</v>
@@ -2638,136 +2708,136 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E18" s="10">
         <v>43438</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E19" s="6">
         <v>43437</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>160</v>
+        <v>150</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E20" s="10">
         <v>43434</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E21" s="6">
         <v>43439</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E22" s="6">
         <v>43437</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E23" s="6">
         <v>43438</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E24" s="6">
         <v>43432</v>
@@ -2776,36 +2846,36 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E25" s="6">
         <v>43430</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E26" s="7">
         <v>43419</v>
@@ -2814,82 +2884,82 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>177</v>
+        <v>167</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>287</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E27" s="6">
         <v>43433</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E28" s="6">
         <v>43437</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E29" s="7">
         <v>43382</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E30" s="6">
         <v>43439</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2897,13 +2967,13 @@
         <v>88</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E31" s="7">
         <v>43357</v>
@@ -2912,96 +2982,96 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E32" s="6">
         <v>43439</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E33" s="6">
         <v>43439</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>193</v>
+        <v>183</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>288</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E34" s="6">
         <v>43439</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E35" s="6">
         <v>43440</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E36" s="6">
         <v>43438</v>
@@ -3010,36 +3080,36 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E37" s="6">
         <v>43431</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E38" s="6">
         <v>43433</v>
@@ -3048,12 +3118,12 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="4"/>
       <c r="D39" s="33" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E39" s="6">
         <v>43432</v>
@@ -3062,147 +3132,147 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E40" s="6">
         <v>43439</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E41" s="7">
         <v>43390</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>211</v>
+        <v>201</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E42" s="7">
         <v>43413</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E43" s="7">
         <v>43379</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E44" s="10">
         <v>43439</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>219</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>220</v>
+        <v>210</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>221</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>229</v>
+        <v>212</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>220</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E52" s="12">
         <v>43432</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3282,7 @@
     <hyperlink ref="C38" r:id="rId2"/>
     <hyperlink ref="C29" r:id="rId3"/>
     <hyperlink ref="C46" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5" tooltip="https://wx.qq.com/cgi-bin/mmwebwx-bin/webwxcheckurl?requrl=https://github.com/BanStayUpLate/SGJ-Homework&amp;skey=@crypt_346beb31_9511e8e605830b2facd79aacd0f10583&amp;deviceid=e701479915032979&amp;pass_ticket=nntNum9MbqLKaNWer+JNI0l68EhGL6XXOLS1fHdsyTCxlChr1iGqUQkVUz"/>
+    <hyperlink ref="B8" r:id="rId5"/>
     <hyperlink ref="B38" r:id="rId6"/>
     <hyperlink ref="B29" r:id="rId7"/>
     <hyperlink ref="B46" r:id="rId8"/>
@@ -3262,6 +3332,21 @@
     <hyperlink ref="D5" r:id="rId52"/>
     <hyperlink ref="D4" r:id="rId53"/>
     <hyperlink ref="D3" r:id="rId54"/>
+    <hyperlink ref="B3" r:id="rId55"/>
+    <hyperlink ref="B4" r:id="rId56"/>
+    <hyperlink ref="B6" r:id="rId57"/>
+    <hyperlink ref="B7" r:id="rId58"/>
+    <hyperlink ref="B9" r:id="rId59"/>
+    <hyperlink ref="B10" r:id="rId60"/>
+    <hyperlink ref="B11" r:id="rId61"/>
+    <hyperlink ref="B13" r:id="rId62"/>
+    <hyperlink ref="B15" r:id="rId63"/>
+    <hyperlink ref="B16" r:id="rId64"/>
+    <hyperlink ref="B17" r:id="rId65"/>
+    <hyperlink ref="B27" r:id="rId66"/>
+    <hyperlink ref="B34" r:id="rId67"/>
+    <hyperlink ref="B45" r:id="rId68"/>
+    <hyperlink ref="D10" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/西开作业情况.xlsx
+++ b/西开作业情况.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="298">
   <si>
     <t>博客</t>
   </si>
@@ -956,35 +956,39 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>https://blog.csdn.net/Memory_sun</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/cccisasb/cccisabigsb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹晨晨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>折高建</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/BanStayUpLate/SGJ-Homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/TTYYHH111/homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>田宇虎</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ThePick1011/Homework</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/Dragongstone/homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/Memory_sun</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/cccisasb/cccisabigsb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹晨晨</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>折高建</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/BanStayUpLate/SGJ-Homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/TTYYHH111/homework</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>田宇虎</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2375,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2482,10 +2486,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>122</v>
@@ -2520,10 +2524,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>293</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>294</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>125</v>
@@ -2538,10 +2542,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>126</v>
@@ -2567,7 +2571,7 @@
         <v>129</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E10" s="7">
         <v>43419</v>
@@ -2692,7 +2696,7 @@
       <c r="A17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="32" t="s">
         <v>286</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -3064,8 +3068,8 @@
       <c r="A36" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>190</v>
+      <c r="B36" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>190</v>
@@ -3234,8 +3238,8 @@
       <c r="A45" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>289</v>
+      <c r="B45" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="C45" t="s">
         <v>211</v>
@@ -3347,6 +3351,7 @@
     <hyperlink ref="B34" r:id="rId67"/>
     <hyperlink ref="B45" r:id="rId68"/>
     <hyperlink ref="D10" r:id="rId69"/>
+    <hyperlink ref="B36" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/西开作业情况.xlsx
+++ b/西开作业情况.xlsx
@@ -881,9 +881,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
@@ -938,21 +938,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,6 +968,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -981,8 +982,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,51 +1020,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1065,11 +1036,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1172,7 +1172,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,19 +1202,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1232,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,103 +1310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,6 +1327,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1340,36 +1355,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1392,38 +1387,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,10 +1435,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1447,16 +1447,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1465,119 +1465,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,9 +1612,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2101,19 +2098,19 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="33">
         <v>81</v>
       </c>
     </row>
@@ -2127,18 +2124,18 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="N3" s="35">
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="N3" s="34">
         <v>77.5</v>
       </c>
     </row>
@@ -2152,14 +2149,14 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="N4" s="28">
+      <c r="D4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="N4" s="27">
         <v>55.5</v>
       </c>
     </row>
@@ -2173,19 +2170,19 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="26" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="35">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="34">
         <v>70</v>
       </c>
     </row>
@@ -2199,20 +2196,20 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="28">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="27">
         <v>43.5</v>
       </c>
-      <c r="O6" s="36"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -2224,22 +2221,22 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="24" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="37">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="36">
         <v>53</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
@@ -2251,18 +2248,18 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="26"/>
-      <c r="N8" s="34">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="25"/>
+      <c r="N8" s="33">
         <v>83.5</v>
       </c>
     </row>
@@ -2276,17 +2273,17 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="N9" s="39">
+      <c r="H9" s="26"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="N9" s="38">
         <v>27</v>
       </c>
     </row>
@@ -2300,15 +2297,15 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="28">
+      <c r="D10" s="25"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="27">
         <v>46.5</v>
       </c>
     </row>
@@ -2322,14 +2319,14 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="25"/>
       <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="26"/>
-      <c r="N11" s="28">
+      <c r="J11" s="25"/>
+      <c r="N11" s="27">
         <v>47</v>
       </c>
     </row>
@@ -2343,21 +2340,21 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="24"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="35">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="34">
         <v>62</v>
       </c>
     </row>
@@ -2371,17 +2368,17 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="25"/>
       <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="N13" s="28">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="N13" s="27">
         <v>58.5</v>
       </c>
     </row>
@@ -2395,20 +2392,20 @@
       <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="35">
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="34">
         <v>76</v>
       </c>
-      <c r="Q14" s="36"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
@@ -2420,17 +2417,17 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="F15" s="24" t="s">
+      <c r="D15" s="23"/>
+      <c r="F15" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="35">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="34">
         <v>60</v>
       </c>
     </row>
@@ -2444,19 +2441,19 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="28" t="s">
+      <c r="L16" s="25"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="27" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2470,19 +2467,19 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="N17" s="34">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="N17" s="33">
         <v>94.5</v>
       </c>
-      <c r="Q17" s="36"/>
+      <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -2494,15 +2491,15 @@
       <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="N18" s="28" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="N18" s="27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2516,25 +2513,25 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="26"/>
-      <c r="N19" s="35">
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="25"/>
+      <c r="N19" s="34">
         <v>62</v>
       </c>
-      <c r="O19" s="36"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
@@ -2546,23 +2543,23 @@
       <c r="C20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="33">
         <v>97</v>
       </c>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -2574,16 +2571,16 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="23"/>
       <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="N21" s="28">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="N21" s="27">
         <v>41</v>
       </c>
     </row>
@@ -2597,21 +2594,21 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="33" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="28" t="s">
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="27" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2625,15 +2622,15 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="33"/>
-      <c r="N23" s="35">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="32"/>
+      <c r="N23" s="34">
         <v>72</v>
       </c>
     </row>
@@ -2647,12 +2644,12 @@
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -2664,15 +2661,15 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="25"/>
       <c r="G25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="N25" s="28">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="N25" s="27">
         <v>43.5</v>
       </c>
     </row>
@@ -2686,14 +2683,14 @@
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="25"/>
       <c r="G26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
-      <c r="N26" s="40">
+      <c r="H26" s="27"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="25"/>
+      <c r="N26" s="39">
         <v>47.5</v>
       </c>
     </row>
@@ -2706,10 +2703,10 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="N27" s="34">
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="N27" s="33">
         <v>83</v>
       </c>
     </row>
@@ -2723,16 +2720,16 @@
       <c r="C28" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="35">
+      <c r="D28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="34">
         <v>68.5</v>
       </c>
     </row>
@@ -2746,19 +2743,19 @@
       <c r="C29" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="28"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="35">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="34">
         <v>74</v>
       </c>
     </row>
@@ -2769,10 +2766,10 @@
       <c r="G30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="28"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="26"/>
-      <c r="N30" s="35">
+      <c r="J30" s="25"/>
+      <c r="N30" s="34">
         <v>60</v>
       </c>
     </row>
@@ -2780,12 +2777,12 @@
       <c r="A31" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="27"/>
-      <c r="K31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="28">
+      <c r="I31" s="26"/>
+      <c r="K31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="27">
         <v>46</v>
       </c>
     </row>
@@ -2799,17 +2796,17 @@
       <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="F32" s="24" t="s">
+      <c r="D32" s="23"/>
+      <c r="F32" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="N32" s="35">
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="N32" s="34">
         <v>71.5</v>
       </c>
     </row>
@@ -2823,11 +2820,11 @@
       <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="27"/>
-      <c r="N33" s="39">
+      <c r="D33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="26"/>
+      <c r="N33" s="38">
         <v>28</v>
       </c>
     </row>
@@ -2852,14 +2849,14 @@
   <sheetPr/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="54.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="12.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="42.875" customWidth="1"/>
@@ -2892,7 +2889,7 @@
       <c r="A2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2925,7 +2922,7 @@
       <c r="E3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>43440</v>
       </c>
       <c r="G3" s="3"/>
@@ -2934,7 +2931,7 @@
       <c r="A4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -2946,7 +2943,7 @@
       <c r="E4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>43433</v>
       </c>
       <c r="G4" s="3"/>
@@ -2978,7 +2975,7 @@
       <c r="A6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2990,7 +2987,7 @@
       <c r="E6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>43410</v>
       </c>
       <c r="G6" s="3"/>
@@ -2999,7 +2996,7 @@
       <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3011,7 +3008,7 @@
       <c r="E7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>43426</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -3022,19 +3019,19 @@
       <c r="A8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>138</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>43410</v>
       </c>
       <c r="G8" s="3"/>
@@ -3043,7 +3040,7 @@
       <c r="A9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -3055,7 +3052,7 @@
       <c r="E9" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>43432</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -3078,7 +3075,7 @@
       <c r="E10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>43419</v>
       </c>
       <c r="G10" s="3"/>
@@ -3093,7 +3090,7 @@
       <c r="C11" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3141,7 +3138,7 @@
       <c r="E13" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>43391</v>
       </c>
       <c r="G13" s="3"/>
@@ -3150,7 +3147,7 @@
       <c r="A14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3173,7 +3170,7 @@
       <c r="A15" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3208,7 +3205,7 @@
       <c r="E16" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="8">
         <v>43441</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -3252,7 +3249,7 @@
       <c r="E18" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="8">
         <v>43446</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3298,7 +3295,7 @@
       <c r="E20" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="8">
         <v>43442</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -3378,7 +3375,7 @@
       <c r="A24" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>196</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -3422,7 +3419,7 @@
       <c r="A26" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -3434,7 +3431,7 @@
       <c r="E26" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>43419</v>
       </c>
       <c r="G26" s="3"/>
@@ -3455,7 +3452,7 @@
       <c r="E27" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>43433</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -3466,7 +3463,7 @@
       <c r="A28" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3489,7 +3486,7 @@
       <c r="A29" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>214</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -3501,7 +3498,7 @@
       <c r="E29" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>43382</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -3512,7 +3509,7 @@
       <c r="A30" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>218</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -3547,7 +3544,7 @@
       <c r="E31" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>43357</v>
       </c>
       <c r="G31" s="3"/>
@@ -3556,7 +3553,7 @@
       <c r="A32" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3579,7 +3576,7 @@
       <c r="A33" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>227</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -3625,7 +3622,7 @@
       <c r="A35" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>235</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -3648,7 +3645,7 @@
       <c r="A36" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>239</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -3669,7 +3666,7 @@
       <c r="A37" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>242</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -3692,7 +3689,7 @@
       <c r="A38" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>245</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -3701,7 +3698,7 @@
       <c r="D38" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>246</v>
       </c>
       <c r="F38" s="5">
@@ -3719,7 +3716,7 @@
       <c r="E39" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>43432</v>
       </c>
       <c r="G39" s="3"/>
@@ -3728,7 +3725,7 @@
       <c r="A40" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -3737,7 +3734,7 @@
       <c r="D40" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>251</v>
       </c>
       <c r="F40" s="5">
@@ -3760,10 +3757,10 @@
       <c r="D41" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>43390</v>
       </c>
       <c r="G41" s="3" t="s">
@@ -3771,22 +3768,22 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>43413</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -3794,22 +3791,22 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>43379</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -3817,22 +3814,22 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>265</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="8">
         <v>43445</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3855,7 +3852,7 @@
       <c r="E45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7">
@@ -3904,7 +3901,7 @@
       <c r="E48" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <v>43400</v>
       </c>
       <c r="G48" s="3"/>
@@ -3929,23 +3926,23 @@
       <c r="G49" s="3"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>43432</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="20" t="s">
         <v>285</v>
       </c>
     </row>
